--- a/lookup table/20240923_Exp2 Lookup Table.xlsx
+++ b/lookup table/20240923_Exp2 Lookup Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/GaTech Dropbox/Athena Chien/5pProtocolsPaper 2024/raw data/RPE raw data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D16A3A-5587-3745-8EB0-7F6062F0DF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066F5B7-2849-A442-BA44-90C1317A239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40340" yWindow="-3480" windowWidth="30520" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-55760" yWindow="1160" windowWidth="30520" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>plateID</t>
   </si>
@@ -115,31 +115,13 @@
     <t>notes</t>
   </si>
   <si>
-    <t>RPEmedia_TW4-1_d1_chamber1_channel1_5freq5sine_freq</t>
-  </si>
-  <si>
     <t>RPEmedia_TW2-1_d1_chamber1_channel1_5freq5sine_freq</t>
   </si>
   <si>
     <t>RPEmedia_TW1-1_d1_chamber1_channel1_5freq5sine_freq</t>
   </si>
   <si>
-    <t>noSoln_noTW_d1_channel1_5freq5sine_modelCell_freq</t>
-  </si>
-  <si>
-    <t>RPEmedia_noTW_d1_chamber1_channel1_5freq5sine_freq</t>
-  </si>
-  <si>
-    <t>RPEmedia_1TW_d1_chamber1_channel1_5freq5sine_freq</t>
-  </si>
-  <si>
     <t>RPEmedia_TW3-1_d1_chamber1_channel1_5freq5sine_freq</t>
-  </si>
-  <si>
-    <t>RPEmedia_TW5-1_d1_chamber1_channel1_5freq5sine_freq</t>
-  </si>
-  <si>
-    <t>RPEmedia_TW6-1_d1_chamber1_channel1_5freq5sine_freq</t>
   </si>
 </sst>
 </file>
@@ -507,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -615,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <v>1.1200000000000001</v>
@@ -626,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1.1200000000000001</v>
@@ -640,72 +622,6 @@
         <v>33</v>
       </c>
       <c r="K4">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10">
         <v>1.1200000000000001</v>
       </c>
     </row>

--- a/lookup table/20240923_Exp2 Lookup Table.xlsx
+++ b/lookup table/20240923_Exp2 Lookup Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Athena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066F5B7-2849-A442-BA44-90C1317A239C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDD98C-A054-AB4E-A383-7B2288864ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55760" yWindow="1160" windowWidth="30520" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40340" yWindow="-3480" windowWidth="30520" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2">
         <v>1.1200000000000001</v>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1.1200000000000001</v>
